--- a/Tabele/ginijev koeficient, manj 0.7.xlsx
+++ b/Tabele/ginijev koeficient, manj 0.7.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FAKS\2. letnik\Seminar\Skupinski_seminar_2019\Tabele\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uporabnik\Desktop\Skupinski_seminar_2019\Tabele\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9F7DAD-2E79-450E-BDDD-4FC19CD028D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="4035" yWindow="4035" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -198,7 +199,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,7 +293,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -318,7 +318,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sl-SI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -819,7 +819,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -878,7 +878,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sl-SI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1504490927"/>
@@ -935,7 +935,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sl-SI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1510,20 +1510,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1026" name="Grafikon 4"/>
+        <xdr:cNvPr id="1026" name="Grafikon 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1619,6 +1625,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1654,6 +1677,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pisarna">
@@ -1829,10 +1869,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:M57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L32" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>

--- a/Tabele/ginijev koeficient, manj 0.7.xlsx
+++ b/Tabele/ginijev koeficient, manj 0.7.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uporabnik\Desktop\Skupinski_seminar_2019\Tabele\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FAKS\2. letnik\Seminar\Skupinski_seminar_2019\Tabele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9F7DAD-2E79-450E-BDDD-4FC19CD028D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="4035" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Country</t>
-  </si>
-  <si>
-    <t>Gini (%)</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -199,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -255,10 +251,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="108"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="8"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -287,12 +283,12 @@
             </a:r>
             <a:r>
               <a:rPr lang="sl-SI"/>
-              <a:t> po svetu, &lt; 0,7</a:t>
+              <a:t>, manj kot 0.35</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -318,7 +314,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sl-SI"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -378,7 +374,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'1'!$M$2</c:f>
+              <c:f>'1'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -586,181 +582,181 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1'!$M$3:$M$57</c:f>
+              <c:f>'1'!$B$3:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>0.64400000000000002</c:v>
+                  <c:v>0.32200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.629</c:v>
+                  <c:v>0.3145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64500000000000002</c:v>
+                  <c:v>0.32250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65799999999999992</c:v>
+                  <c:v>0.32899999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64300000000000002</c:v>
+                  <c:v>0.32150000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67099999999999993</c:v>
+                  <c:v>0.33549999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61399999999999999</c:v>
+                  <c:v>0.307</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65900000000000003</c:v>
+                  <c:v>0.32950000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68900000000000006</c:v>
+                  <c:v>0.34450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63200000000000001</c:v>
+                  <c:v>0.316</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.64700000000000002</c:v>
+                  <c:v>0.32350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.67400000000000004</c:v>
+                  <c:v>0.33700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.63100000000000001</c:v>
+                  <c:v>0.3155</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.66</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.69400000000000006</c:v>
+                  <c:v>0.34700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68700000000000006</c:v>
+                  <c:v>0.34350000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.67799999999999994</c:v>
+                  <c:v>0.33899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.68200000000000005</c:v>
+                  <c:v>0.34100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.66200000000000003</c:v>
+                  <c:v>0.33100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.625</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.68900000000000006</c:v>
+                  <c:v>0.34450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.63100000000000001</c:v>
+                  <c:v>0.3155</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.67700000000000005</c:v>
+                  <c:v>0.33850000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.67</c:v>
+                  <c:v>0.33500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.67299999999999993</c:v>
+                  <c:v>0.33649999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.66500000000000004</c:v>
+                  <c:v>0.33250000000000002</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.65500000000000003</c:v>
+                  <c:v>0.32750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.66299999999999992</c:v>
+                  <c:v>0.33149999999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.65500000000000003</c:v>
+                  <c:v>0.32750000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.68200000000000005</c:v>
+                  <c:v>0.34100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.63100000000000001</c:v>
+                  <c:v>0.3155</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.66700000000000004</c:v>
+                  <c:v>0.33350000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.64</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.65900000000000003</c:v>
+                  <c:v>0.32950000000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.63100000000000001</c:v>
+                  <c:v>0.3155</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.58200000000000007</c:v>
+                  <c:v>0.29100000000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.69900000000000007</c:v>
+                  <c:v>0.34950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.65</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.61499999999999999</c:v>
+                  <c:v>0.3075</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.65</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.65300000000000002</c:v>
+                  <c:v>0.32650000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.67900000000000005</c:v>
+                  <c:v>0.33950000000000002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.498</c:v>
+                  <c:v>0.254</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.64599999999999991</c:v>
+                  <c:v>0.245</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.68900000000000006</c:v>
+                  <c:v>0.34450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.69700000000000006</c:v>
+                  <c:v>0.34850000000000003</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.68700000000000006</c:v>
+                  <c:v>0.34350000000000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.74099999999999999</c:v>
+                  <c:v>0.3705</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.69</c:v>
+                  <c:v>0.34499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.64599999999999991</c:v>
+                  <c:v>0.32299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.54100000000000004</c:v>
+                  <c:v>0.27050000000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.67099999999999993</c:v>
+                  <c:v>0.33549999999999996</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.68299999999999994</c:v>
+                  <c:v>0.34149999999999997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.61899999999999999</c:v>
+                  <c:v>0.3095</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.67599999999999993</c:v>
+                  <c:v>0.33799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-612E-4D53-810A-E81EFFC0EFCA}"/>
+              <c16:uniqueId val="{00000000-18D1-4541-A2C4-ABBD287F40D3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -774,12 +770,12 @@
         </c:dLbls>
         <c:gapWidth val="65"/>
         <c:shape val="box"/>
-        <c:axId val="1504490927"/>
-        <c:axId val="1"/>
+        <c:axId val="163274688"/>
+        <c:axId val="163275104"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="1504490927"/>
+        <c:axId val="163274688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,10 +815,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="163275104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -830,7 +826,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="163275104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,10 +874,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sl-SI"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1504490927"/>
+        <c:crossAx val="163274688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -935,7 +931,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sl-SI"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -947,8 +943,39 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1511,28 +1538,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>474889</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>39460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1026" name="Grafikon 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafikon 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1625,23 +1644,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1677,23 +1679,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pisarna">
@@ -1869,468 +1854,468 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="M3">
-        <v>0.64400000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.3145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>0.629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0.32250000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="M5">
-        <v>0.64500000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>0.32899999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="M6">
-        <v>0.65799999999999992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>0.32150000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="M7">
-        <v>0.64300000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>0.33549999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="M8">
-        <v>0.67099999999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="M9">
-        <v>0.61399999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>0.32950000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="M10">
-        <v>0.65900000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>0.34450000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="M11">
-        <v>0.68900000000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="M12">
-        <v>0.63200000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13">
+        <v>0.32350000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="M13">
-        <v>0.64700000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14">
+        <v>0.33700000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="M14">
-        <v>0.67400000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>0.3155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="M15">
-        <v>0.63100000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="M16">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>0.34700000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="M17">
-        <v>0.69400000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>0.34350000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="M18">
-        <v>0.68700000000000006</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19">
+        <v>0.33899999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="M19">
-        <v>0.67799999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="M20">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="M21">
-        <v>0.66200000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="M22">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>0.34450000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="M23">
-        <v>0.68900000000000006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24">
+        <v>0.3155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="M24">
-        <v>0.63100000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25">
+        <v>0.33850000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="M25">
-        <v>0.67700000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="M26">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27">
+        <v>0.33649999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="M27">
-        <v>0.67299999999999993</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28">
+        <v>0.33250000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="M28">
-        <v>0.66500000000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29">
+        <v>0.32750000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="M29">
-        <v>0.65500000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30">
+        <v>0.33149999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="M30">
-        <v>0.66299999999999992</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31">
+        <v>0.32750000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="M31">
-        <v>0.65500000000000003</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="M32">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33">
+        <v>0.3155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="M33">
-        <v>0.63100000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34">
+        <v>0.33350000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="M34">
-        <v>0.66700000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="M35">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36">
+        <v>0.32950000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="M36">
-        <v>0.65900000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37">
+        <v>0.3155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="M37">
-        <v>0.63100000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38">
+        <v>0.29100000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="M38">
-        <v>0.58200000000000007</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39">
+        <v>0.34950000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="M39">
-        <v>0.69900000000000007</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="M40">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41">
+        <v>0.3075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="M41">
-        <v>0.61499999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="M42">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43">
+        <v>0.32650000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="M43">
-        <v>0.65300000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44">
+        <v>0.33950000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="M44">
-        <v>0.67900000000000005</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="M45">
-        <v>0.498</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="M46">
-        <v>0.64599999999999991</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47">
+        <v>0.34450000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="M47">
-        <v>0.68900000000000006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48">
+        <v>0.34850000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="M48">
-        <v>0.69700000000000006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B49">
+        <v>0.34350000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="M49">
-        <v>0.68700000000000006</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B50">
+        <v>0.3705</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="M50">
-        <v>0.74099999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B51">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="M51">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B52">
+        <v>0.32299999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="M52">
-        <v>0.64599999999999991</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B53">
+        <v>0.27050000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="M53">
-        <v>0.54100000000000004</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B54">
+        <v>0.33549999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="M54">
-        <v>0.67099999999999993</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B55">
+        <v>0.34149999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="M55">
-        <v>0.68299999999999994</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B56">
+        <v>0.3095</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="M56">
-        <v>0.61899999999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="M57">
-        <v>0.67599999999999993</v>
+      <c r="B57">
+        <v>0.33799999999999997</v>
       </c>
     </row>
   </sheetData>
